--- a/API_project/report/Excel/0102迭代联系方式渠道.xlsx
+++ b/API_project/report/Excel/0102迭代联系方式渠道.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2022年01月14日17时11分" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2022年01月15日10时03分" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2022年01月15日18时29分" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022年01月17日09时40分" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2022年01月17日13时33分" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +479,359 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>40813ef7bd127a7c816dc956be9a2d5f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>孚日集团股份有限公司</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>40813ef7bd127a7c816dc956be9a2d5f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>孚日集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>79e9aef25dfff634498b149aa4721aa7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>厦门大拇哥动漫股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>品牌网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4e9cdf7bf949554f3f0201aca6fd655c</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>福建达利食品集团有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>企业网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>百度外卖</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
           <t>mobileSource</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>百度外卖</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>自助贸易网</t>
+          <t>中国网库</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NOT_IN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -505,21 +848,428 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>酷企网</t>
+          <t>虎易网</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>d3d8eba0b03089c75ccb03f624c83caf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>福建七匹狼集团有限公司</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中国交易网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>NOT_IN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>d3d8eba0b03089c75ccb03f624c83caf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>福建七匹狼集团有限公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中国交易网</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>十环网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>316887872fde8338adf97d4ca226cc97</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>浙江安露清洗机有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>316887872fde8338adf97d4ca226cc97</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>浙江安露清洗机有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>114百事通</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c394d58dbaa73d8f2d325641effb7599</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>特变电工股份有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f081972b479487fdf142a1b8223ee4b4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宁波太平鸟时尚服饰股份有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>品牌网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>联系方式为空</t>
+          <t>详情页有该渠道但是ES没有该渠道</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>52fd70de6dba9ba1b8add123923c0e79</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>才子服饰股份有限公司</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>fixedSource</t>
@@ -527,61 +1277,105 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中国花木网</t>
+          <t>品牌网</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NOT_IN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>搜索结果为空</t>
+          <t>详情页有该渠道但是ES没有该渠道</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>contactSource</t>
+          <t>fixedSource</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>园林网</t>
+          <t>中国花木网</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOT_IN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>联系方式为空</t>
+          <t>搜索结果为空</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
           <t>mobileSource</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>园林网</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NOT_IN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>联系方式为空</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
         </is>
       </c>
     </row>

--- a/API_project/report/Excel/0102迭代联系方式渠道.xlsx
+++ b/API_project/report/Excel/0102迭代联系方式渠道.xlsx
@@ -11,6 +11,14 @@
     <sheet name="2022年01月15日18时29分" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2022年01月17日09时40分" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2022年01月17日13时33分" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2022年01月19日11时54分" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2022年01月19日16时54分" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2022年01月20日10时45分" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2022年01月20日16时34分" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2022年01月20日17时48分" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2022年01月20日17时54分" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2022年01月20日18时03分" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2022年01月20日18时34分" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -699,6 +707,533 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d33d1812658c27223ee1e598846ef574</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>深圳市善心汇文化传播有限公司</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9f4ec7a527a50f44be63954ff12b707a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江金和美工贸有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f6ab0fd9ab9ae16668eaf5e15db7a661</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>河北君唯餐饮管理集团有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>e082518421065448aa97f17781dffee6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>东莞市强劲煌旗餐饮管理服务有限公司</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f6ab0fd9ab9ae16668eaf5e15db7a661</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>河北君唯餐饮管理集团有限公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43b4192775d90606d612d0e546b41c99</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广东中迅农科股份有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f6ab0fd9ab9ae16668eaf5e15db7a661</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>河北君唯餐饮管理集团有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7c5d446f41e093847973fa9486171df7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>上海皇宇科技发展有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3a4d071978c36da90084983e145af328</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TCL华星光电技术有限公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>f6ab0fd9ab9ae16668eaf5e15db7a661</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>河北君唯餐饮管理集团有限公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7c5d446f41e093847973fa9486171df7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>上海皇宇科技发展有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1382,4 +1917,1071 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c1f565bd5ec5168fd656cdbc6e7ebbf2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>天津友发钢管集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>367a75708d65ea9fc2001a161c2a5529</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>久盛地板有限公司</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>957f75772750d5a7873f705b66df21c4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>中国平煤神马能源化工集团有限责任公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1288f9ad4deb45907c4878061a8f3e34</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广东永骏经济发展有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>品牌网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fd6e657ed8bdad809fc1321a10df0d22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>达利丝绸（浙江）有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>品牌网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>土巴兔</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>我的钢铁网</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>df71955a3f6331a5205d6469a4c04430</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科沃斯机器人股份有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ca94b6b92722d2ffe39b46b408405440</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>中融国际信托有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>买购网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>f3caeff8eee570b3ccb416b1e13e7968</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>健康元药业集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6845764614aac285c27ed26d7ae9c8ef</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广东芬尼克兹节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>企业网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6845764614aac285c27ed26d7ae9c8ef</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>广东芬尼克兹节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>企业网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>f62c9da24b2a795e2f568fc3a65fe53e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>国家开发银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>国联资源网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6845764614aac285c27ed26d7ae9c8ef</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广东芬尼克兹节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>企业网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6845764614aac285c27ed26d7ae9c8ef</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>广东芬尼克兹节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>企业网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/API_project/report/Excel/0102迭代联系方式渠道.xlsx
+++ b/API_project/report/Excel/0102迭代联系方式渠道.xlsx
@@ -19,6 +19,9 @@
     <sheet name="2022年01月20日17时54分" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="2022年01月20日18时03分" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="2022年01月20日18时34分" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2022年01月20日23时55分" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2022年01月21日18时41分" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2022年01月21日18时43分" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1234,6 +1237,7397 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F325"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>工商企业年报2016</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>工商企业年报2017</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>工商企业年报2018</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>工商企业年报2019</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>慧聪网</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>找找去</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>环球贸易网</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>华丰商务</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>企领网</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>八方资源网</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>企业梦工厂</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>企业通</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>51搜了么</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>中国网库</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>马可波罗网</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>传众网</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>一呼百应</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>商务巴巴</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>一比多</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>淘金地</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>世界工厂</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>中国制造网</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>志趣网</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>258.com</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>快点8</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>快点8</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>快点8</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/API_project/report/Excel/0102迭代联系方式渠道.xlsx
+++ b/API_project/report/Excel/0102迭代联系方式渠道.xlsx
@@ -22,6 +22,10 @@
     <sheet name="2022年01月20日23时55分" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="2022年01月21日18时41分" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="2022年01月21日18时43分" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2022年02月14日11时43分" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="2022年02月14日17时01分" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="2022年02月14日17时02分" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="2022年02月15日10时57分" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8628,6 +8632,900 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>84f2342c02f7df8eecb92f3faa9a43e5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>广东共力建材有限公司</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>K客集齐</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4b748ca67e4bd5244f2b034ae43cf1d4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>江苏奥新科技有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>网商汇</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6bf81626bf23ceca40cb8c8672a55e9f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>福建泉州市华远电讯有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>酷易搜</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>119c83f5c727541ab90b73ae69124705</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>山东万紫园旅游开发有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>园林网</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f5325b44b43429688fb3b6341e8e7d69</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>康盛有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>园林网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>451cd5dc89777c1852502a315243695e</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>潮州市英歌尼斯卫浴有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>九正建材网</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2adc4f2904a522863548178deb9708ae</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>甘肃祁连葡萄酒业有限责任公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中国建材采购网</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>f0800f9ac0d1160febe13a83c47dedb8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>上海中欧国际企业集团有限公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中国建材采购网</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5bb2850b97c01913d0cc44cbc9427e7f</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>苏州亚科科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>中国化工网</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>966ef7ce86cec4a84112642a79218e7f</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>宁波菊风系统软件有限公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>企业在线</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1b53a709d350e56ac74516aed5cf955b</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>宁波纽时达火花塞股份有限公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>114百事通</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06c819e41d33f8ff85c3f79b83ce6378</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广州迪康生物科技有限公司</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>查电话</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>f7d155df2a5be86cd1ad9caf753bc30d</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>广州市震十龙机械有限公司</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>俊才招聘</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>9d3010bafba7d77b4ffe6841aafceaba</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>京济咨询有限公司</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BOSS直聘</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
